--- a/02-Evaluation/01-evaluation.xlsx
+++ b/02-Evaluation/01-evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drweb/projects/mmir-unibasel/chapter02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drweb/projects/mmir-unibasel-hs24/02-Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE93D93-5580-D441-8B0F-240BBF3D97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC0A546-68B7-484C-9BAA-2FC903B7DAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{6B3CAA9B-0797-594C-9422-DD89E8931424}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{6B3CAA9B-0797-594C-9422-DD89E8931424}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,12 @@
     <sheet name="MicroMacro" sheetId="4" r:id="rId3"/>
     <sheet name="Ranked" sheetId="5" r:id="rId4"/>
     <sheet name="Graded" sheetId="7" r:id="rId5"/>
+    <sheet name="ConfusionMatrix" sheetId="8" r:id="rId6"/>
+    <sheet name="RocCurve" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
     <definedName name="GradeValues">Table134[Grade]</definedName>
     <definedName name="NDocs">Data!$K$2</definedName>
@@ -69,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="198">
   <si>
     <t>Genre</t>
   </si>
@@ -609,6 +614,479 @@
   <si>
     <t>nDCG_k</t>
   </si>
+  <si>
+    <r>
+      <t>Error Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ERR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Misclassification Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>True Negative Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Specificity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>False Negative Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FNR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Miss Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Accuracy (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ACC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>False Positive Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Fall-Out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>True Positive Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Sensitivity, Recall, Hit Rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Negative Predictive Value (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NPV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>False Omission
+Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>True Negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>False Negative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>“No”</t>
+  </si>
+  <si>
+    <r>
+      <t>False Discovery 
+Rate (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive Predictive Value (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>PPV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Precision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>False Positive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>True Positive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>TP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>“Yes”</t>
+  </si>
+  <si>
+    <t>Predicated Condition</t>
+  </si>
+  <si>
+    <r>
+      <t>Negative (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Positive (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>Confusion Matrix</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>TPR</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
 </sst>
 </file>
 
@@ -617,7 +1095,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -738,8 +1216,59 @@
       <name val="Cambria Math"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +1346,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2F0D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4B183"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8FAADC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -997,8 +1592,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1011,8 +1695,10 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1037,33 +1723,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1095,9 +1754,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,9 +1774,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1176,11 +1829,177 @@
     <xf numFmtId="9" fontId="7" fillId="14" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="17" fillId="17" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="18" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="18" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="17" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="24" fillId="15" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="16" borderId="11" xfId="13" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="15" borderId="22" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="20% - Accent1" xfId="8" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="10" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="11" builtinId="50"/>
+    <cellStyle name="40% - Accent1 2" xfId="12" xr:uid="{0A1489E7-F50E-4640-B46B-9CA4CD143A05}"/>
+    <cellStyle name="60% - Accent1 2" xfId="13" xr:uid="{4A7582EF-D33D-9E42-BD8D-97B49A90DE4C}"/>
     <cellStyle name="Accent1" xfId="7" builtinId="29"/>
     <cellStyle name="Accent3" xfId="9" builtinId="37"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1273,9 +2092,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1350,6 +2166,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1534,64 +2353,64 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>6.6666666666666666E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.13333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.26666666666666666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26666666666666666</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.46666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,64 +2422,64 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.58333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.61538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.5625</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.52941176470588236</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,6 +2682,1411 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12848643919510061"/>
+          <c:y val="5.2783311183412104E-2"/>
+          <c:w val="0.80899278215223092"/>
+          <c:h val="0.85723666775215934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ROC curve</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4F2FD9D-8AE8-3A48-89E9-2F71CB0EB59D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0533880903490947E-3"/>
+                  <c:y val="-3.994732083166886E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CE41FEE1-23F0-1044-8FD9-26B2DBCF4217}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86A64310-5554-7741-AB60-0D362406D0A7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3637CE1D-BD10-7E43-982E-B46031D92C1C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{400395A5-ACC2-2E4E-AC48-FB2084D384FE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0800821355236138E-2"/>
+                  <c:y val="-3.6697247706422076E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="75000"/>
+                            <a:lumOff val="25000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{59D36DB9-7258-9F47-9C78-FB859DCBD65F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:shade val="15000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-CH"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6960985626283367E-2"/>
+                  <c:y val="-3.3639143730886903E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0658E7F8-6637-B74C-A52C-80F2786A20BD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EAFBBA13-B5B9-8645-939C-23D97B28E9F1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2854209445585217E-2"/>
+                  <c:y val="-4.3020191664874217E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E9B7CE48-AEA1-4C4D-B0D8-18BF4957C1EE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EED65369-4E19-DC4E-B60A-A9EE369A8374}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2854209445585217E-2"/>
+                  <c:y val="-3.994732083166886E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{855F1635-164F-F341-A886-504E4FC03BBC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{39E1D859-4684-544F-8053-1038A58163EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2854209445585217E-2"/>
+                  <c:y val="-3.6874449998463565E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{321CC96C-7169-D94F-9B4E-70EAA7C406E3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0800821355236215E-2"/>
+                  <c:y val="-3.3801579165258271E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7CBAA297-C13F-1E4A-A110-B2D6C71EA5A0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2854209445585217E-2"/>
+                  <c:y val="-3.0728708332052969E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB13DEC2-65F2-4641-A21E-C34943300C0B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DC3E30F2-8BBF-3A43-A49D-1D5E3A599268}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0800821355236138E-2"/>
+                  <c:y val="-3.0728708332052969E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C3C9AEB-20AA-0D4C-9491-958C989D295D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{28726BAF-50DA-2643-B97F-77602093C892}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4907597535934289E-2"/>
+                  <c:y val="-2.4582966665642376E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D22059E3-766D-8047-ABE4-1D770E248CF8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D0E02B3-A1CD-0A41-AEDA-1C21B6173A32}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-D454-AF42-A5DA-F55A0E60E006}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-CH"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>RocCurve!$L$6:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>RocCurve!$K$6:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>RocCurve!$E$6:$E$25</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.90</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.80</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.70</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.60</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.55</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.54</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.53</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.52</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.51</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.40</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.39</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.38</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.37</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.36</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.35</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.34</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.33</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.30</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.10</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-D454-AF42-A5DA-F55A0E60E006}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="369861440"/>
+        <c:axId val="479267216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="369861440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR (fall-out)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479267216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="479267216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPR (recall)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369861440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.5174222703681548"/>
+          <c:y val="0.48620554311445008"/>
+          <c:w val="0.20375786188944042"/>
+          <c:h val="6.5498847705012478E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1903,7 +4127,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2898,6 +5678,415 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D6A778-D4A6-534B-B0A3-CA7F72C90702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14514</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>540658</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>29029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Freeform: Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0355ABC3-3F00-1740-946F-2AB6B851D160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10932886" y="1030514"/>
+          <a:ext cx="5089072" cy="3672115"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 5000172"/>
+            <a:gd name="connsiteY0" fmla="*/ 3541486 h 3541486"/>
+            <a:gd name="connsiteX1" fmla="*/ 0 w 5000172"/>
+            <a:gd name="connsiteY1" fmla="*/ 2830286 h 3541486"/>
+            <a:gd name="connsiteX2" fmla="*/ 493486 w 5000172"/>
+            <a:gd name="connsiteY2" fmla="*/ 2833914 h 3541486"/>
+            <a:gd name="connsiteX3" fmla="*/ 497114 w 5000172"/>
+            <a:gd name="connsiteY3" fmla="*/ 1763486 h 3541486"/>
+            <a:gd name="connsiteX4" fmla="*/ 1498600 w 5000172"/>
+            <a:gd name="connsiteY4" fmla="*/ 1767114 h 3541486"/>
+            <a:gd name="connsiteX5" fmla="*/ 1494972 w 5000172"/>
+            <a:gd name="connsiteY5" fmla="*/ 1415143 h 3541486"/>
+            <a:gd name="connsiteX6" fmla="*/ 2002972 w 5000172"/>
+            <a:gd name="connsiteY6" fmla="*/ 1411514 h 3541486"/>
+            <a:gd name="connsiteX7" fmla="*/ 1995714 w 5000172"/>
+            <a:gd name="connsiteY7" fmla="*/ 1063171 h 3541486"/>
+            <a:gd name="connsiteX8" fmla="*/ 2503714 w 5000172"/>
+            <a:gd name="connsiteY8" fmla="*/ 1059543 h 3541486"/>
+            <a:gd name="connsiteX9" fmla="*/ 2503714 w 5000172"/>
+            <a:gd name="connsiteY9" fmla="*/ 700314 h 3541486"/>
+            <a:gd name="connsiteX10" fmla="*/ 3995057 w 5000172"/>
+            <a:gd name="connsiteY10" fmla="*/ 707571 h 3541486"/>
+            <a:gd name="connsiteX11" fmla="*/ 4005943 w 5000172"/>
+            <a:gd name="connsiteY11" fmla="*/ 351971 h 3541486"/>
+            <a:gd name="connsiteX12" fmla="*/ 4506686 w 5000172"/>
+            <a:gd name="connsiteY12" fmla="*/ 351971 h 3541486"/>
+            <a:gd name="connsiteX13" fmla="*/ 4499429 w 5000172"/>
+            <a:gd name="connsiteY13" fmla="*/ 0 h 3541486"/>
+            <a:gd name="connsiteX14" fmla="*/ 5000172 w 5000172"/>
+            <a:gd name="connsiteY14" fmla="*/ 3629 h 3541486"/>
+            <a:gd name="connsiteX15" fmla="*/ 5000172 w 5000172"/>
+            <a:gd name="connsiteY15" fmla="*/ 3541486 h 3541486"/>
+            <a:gd name="connsiteX16" fmla="*/ 0 w 5000172"/>
+            <a:gd name="connsiteY16" fmla="*/ 3541486 h 3541486"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5000172" h="3541486">
+              <a:moveTo>
+                <a:pt x="0" y="3541486"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="2830286"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="493486" y="2833914"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="494695" y="2477105"/>
+                <a:pt x="495905" y="2120295"/>
+                <a:pt x="497114" y="1763486"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1498600" y="1767114"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1497391" y="1649790"/>
+                <a:pt x="1496181" y="1532467"/>
+                <a:pt x="1494972" y="1415143"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="2002972" y="1411514"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1995714" y="1063171"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2503714" y="1059543"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2503714" y="700314"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="3995057" y="707571"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4005943" y="351971"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4506686" y="351971"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4499429" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5000172" y="3629"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5000172" y="3541486"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="3541486"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="23000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="5.x Decision Tree"/>
+      <sheetName val="1.x Discrimination"/>
+      <sheetName val="Ex 1"/>
+      <sheetName val="3.x PageRank"/>
+      <sheetName val="3.x HITS"/>
+      <sheetName val="4.x Similarity"/>
+      <sheetName val="0 Petabyte"/>
+      <sheetName val="5.x Laplace Smoothing"/>
+      <sheetName val="5.x EM Gaussian"/>
+      <sheetName val="5.2 Confusion Matrix"/>
+      <sheetName val="5.2 Performance"/>
+      <sheetName val="5.2 ROC Curve"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="5.x Naive Bayes"/>
+      <sheetName val="5.x Names"/>
+      <sheetName val="5.x CombFeature"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
+        <row r="30">
+          <cell r="W30">
+            <v>0.9</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="W31">
+            <v>0.8</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="W32">
+            <v>0.7</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>0.6</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="W34">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="W35">
+            <v>0.54</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="W36">
+            <v>0.53</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="W37">
+            <v>0.52</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="W38">
+            <v>0.51</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="W39">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="W40">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="W41">
+            <v>0.39</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="W42">
+            <v>0.38</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="W43">
+            <v>0.37</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="W44">
+            <v>0.36</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="W45">
+            <v>0.35</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="W46">
+            <v>0.34</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="W47">
+            <v>0.33</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="W48">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="W49">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8D6E094B-BE72-2A49-AA5D-BE6C0C922CC4}" name="Table134" displayName="Table134" ref="B5:H55" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="B5:H55" xr:uid="{9153420A-2B8C-3540-B567-A3EF6F1694C0}"/>
@@ -2906,14 +6095,14 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{E39BC030-914A-7A4F-B701-516F557DD825}" name="Rel" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{0C72B1FD-7E41-494A-8CCB-6BA3AF269287}" name="Grade" dataDxfId="8" dataCellStyle="Bad"/>
-    <tableColumn id="6" xr3:uid="{5BEBAD83-1818-4E47-A194-AF8E3C0B72C6}" name="RNG" dataDxfId="13" dataCellStyle="Bad">
+    <tableColumn id="7" xr3:uid="{0C72B1FD-7E41-494A-8CCB-6BA3AF269287}" name="Grade" dataDxfId="13" dataCellStyle="Bad"/>
+    <tableColumn id="6" xr3:uid="{5BEBAD83-1818-4E47-A194-AF8E3C0B72C6}" name="RNG" dataDxfId="12" dataCellStyle="Bad">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3073695E-9376-8F46-8E8B-0616858BD431}" name="Genre" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{12317848-74B7-2A44-BC11-FCBC942043E6}" name="Year" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{13B8B96C-5068-E544-BE80-1D1218F97390}" name="Title" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{19930CEE-900B-8B45-B275-72F4930B76BF}" name="Author" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3073695E-9376-8F46-8E8B-0616858BD431}" name="Genre" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{12317848-74B7-2A44-BC11-FCBC942043E6}" name="Year" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{13B8B96C-5068-E544-BE80-1D1218F97390}" name="Title" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{19930CEE-900B-8B45-B275-72F4930B76BF}" name="Author" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3219,7 +6408,7 @@
   <dimension ref="B1:K55"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -3238,15 +6427,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
       <c r="J2" s="10" t="s">
         <v>110</v>
       </c>
@@ -3256,13 +6445,13 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
       <c r="J3" s="10" t="s">
         <v>111</v>
       </c>
@@ -3302,8 +6491,8 @@
         <v>3</v>
       </c>
       <c r="D6" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.84196174968225312</v>
+        <f t="shared" ref="D6:D37" ca="1" si="0">RAND()</f>
+        <v>0.14080725381401038</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>107</v>
@@ -3326,8 +6515,8 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.46496634571863249</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34773340525975194</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>107</v>
@@ -3350,8 +6539,8 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.95047632272670213</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93845910171252178</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>107</v>
@@ -3374,8 +6563,8 @@
         <v>2</v>
       </c>
       <c r="D9" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.783578412849402</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.91763944006154741</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>107</v>
@@ -3398,8 +6587,8 @@
         <v>2</v>
       </c>
       <c r="D10" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.44383215428455092</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77238927409862801</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>107</v>
@@ -3422,8 +6611,8 @@
         <v>2</v>
       </c>
       <c r="D11" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.68384842338677554</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60904171499048387</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>107</v>
@@ -3446,8 +6635,8 @@
         <v>2</v>
       </c>
       <c r="D12" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.43381862012212957</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65410404105574393</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>107</v>
@@ -3470,8 +6659,8 @@
         <v>1</v>
       </c>
       <c r="D13" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.30352614591300475</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.9150616443832319</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>107</v>
@@ -3494,8 +6683,8 @@
         <v>1</v>
       </c>
       <c r="D14" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.30569209313419654</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83616262448793588</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>107</v>
@@ -3518,8 +6707,8 @@
         <v>1</v>
       </c>
       <c r="D15" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.66896090052818113</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81744844595970512</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>107</v>
@@ -3542,8 +6731,8 @@
         <v>1</v>
       </c>
       <c r="D16" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.2537186768734444</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19641349431160493</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>107</v>
@@ -3566,8 +6755,8 @@
         <v>1</v>
       </c>
       <c r="D17" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.59033031548379289</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81915434909779838</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>107</v>
@@ -3590,8 +6779,8 @@
         <v>1</v>
       </c>
       <c r="D18" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.29134255549697308</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84240801802754084</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>107</v>
@@ -3614,8 +6803,8 @@
         <v>1</v>
       </c>
       <c r="D19" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.34452380889990342</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29384436563636951</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>107</v>
@@ -3638,8 +6827,8 @@
         <v>1</v>
       </c>
       <c r="D20" s="4">
-        <f ca="1">RAND()</f>
-        <v>0.24056617707271499</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15422457581621496</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>107</v>
@@ -3658,8 +6847,8 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.37873058425413764</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8889917137709803</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>6</v>
@@ -3678,8 +6867,8 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.47417712372356502</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48253573264149308</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>3</v>
@@ -3698,8 +6887,8 @@
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6">
-        <f ca="1">RAND()</f>
-        <v>3.2986116087726169E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96441138336569598</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>4</v>
@@ -3718,8 +6907,8 @@
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.16847709881559692</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.24325453120487206</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>6</v>
@@ -3738,8 +6927,8 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.81770722425658837</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30511849491523224</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>13</v>
@@ -3758,8 +6947,8 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.33948931407232519</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33395401307659545</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>6</v>
@@ -3778,8 +6967,8 @@
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.66180510430429373</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22569972428953533</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>3</v>
@@ -3798,8 +6987,8 @@
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.11464483475665377</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34760966103498081</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>4</v>
@@ -3818,8 +7007,8 @@
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6">
-        <f ca="1">RAND()</f>
-        <v>2.760101372557533E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68226339418822213</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>6</v>
@@ -3838,8 +7027,8 @@
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.71360058546830663</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4222365884128918</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>13</v>
@@ -3858,8 +7047,8 @@
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6">
-        <f ca="1">RAND()</f>
-        <v>3.2385964874822926E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39436411698876428</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>6</v>
@@ -3878,8 +7067,8 @@
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6">
-        <f ca="1">RAND()</f>
-        <v>1.451524127819237E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73597614670586031</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>3</v>
@@ -3898,8 +7087,8 @@
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.54513225221468808</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60065612286529524</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>4</v>
@@ -3918,8 +7107,8 @@
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.9419519959504149</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73554958668192094</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>6</v>
@@ -3938,8 +7127,8 @@
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.24030321871460891</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60653204850617393</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>13</v>
@@ -3958,8 +7147,8 @@
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.91648353472800803</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2026307554176584</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>6</v>
@@ -3978,8 +7167,8 @@
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.82353111750090924</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38473283214321463</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>4</v>
@@ -3998,8 +7187,8 @@
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.4024626137209234</v>
+        <f t="shared" ref="D38:D55" ca="1" si="1">RAND()</f>
+        <v>0.80856124233502036</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>6</v>
@@ -4018,8 +7207,8 @@
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.73339812846156804</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60136613199041911</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>13</v>
@@ -4038,8 +7227,8 @@
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.15686329096212415</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.83390203006411823</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>6</v>
@@ -4058,8 +7247,8 @@
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.34009697437981956</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70514799104512005</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>4</v>
@@ -4078,8 +7267,8 @@
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.41771836800643647</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49057543183129593</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>6</v>
@@ -4098,8 +7287,8 @@
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.84056714651565811</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.11382281426310037</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>13</v>
@@ -4118,8 +7307,8 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.14578447568026476</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.7877911964604738</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>6</v>
@@ -4138,8 +7327,8 @@
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.24890633606954682</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.1104730483970453</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>3</v>
@@ -4158,8 +7347,8 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.15862093942802258</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25491077278642271</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>4</v>
@@ -4178,8 +7367,8 @@
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.39358581964811867</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5.6774965626945506E-2</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>6</v>
@@ -4198,8 +7387,8 @@
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.68283049831033149</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43552949552414566</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>13</v>
@@ -4218,8 +7407,8 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.38602240225755946</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.17499390987641583</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>6</v>
@@ -4238,8 +7427,8 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.32028158177713428</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51585796644790549</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>4</v>
@@ -4258,8 +7447,8 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.27373097454256445</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.8948546218600496</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>6</v>
@@ -4278,8 +7467,8 @@
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.20078170300212683</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.34460250271112913</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>13</v>
@@ -4298,8 +7487,8 @@
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.56103063515553575</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7.8056376396846039E-2</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>3</v>
@@ -4318,8 +7507,8 @@
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.44286030189445491</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49770210044301322</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>4</v>
@@ -4338,8 +7527,8 @@
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6">
-        <f ca="1">RAND()</f>
-        <v>0.72918507785087194</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0.28121571582413318</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>6</v>
@@ -4387,22 +7576,22 @@
   <sheetData>
     <row r="1" spans="2:12" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="39" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="I2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="11">
         <f>NDocs</f>
         <v>50</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="29" t="s">
         <v>120</v>
       </c>
       <c r="L2" s="11">
@@ -4411,13 +7600,13 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="I3" s="39" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="I3" s="29" t="s">
         <v>111</v>
       </c>
       <c r="J3" s="11">
@@ -4440,7 +7629,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="94" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="3">
@@ -4448,40 +7637,40 @@
       </c>
       <c r="D6" s="3" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">RANK(INDEX(RNG,C6,0),RNG)</f>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(RelValues,D6,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Titles,D6,0)</f>
-        <v>Operating System Concepts</v>
-      </c>
-      <c r="H6" s="32" t="s">
+        <v>Jane Eyre</v>
+      </c>
+      <c r="H6" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="20">
+      <c r="I6" s="95"/>
+      <c r="J6" s="93">
         <f ca="1">K6/K7</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="K6" s="12">
         <f ca="1">COUNTIFS($E$6:$E$25,"X")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">RANK(INDEX(RNG,C7,0),RNG)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(RelValues,D7,0)&amp;""</f>
@@ -4489,11 +7678,11 @@
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Titles,D7,0)</f>
-        <v>The Penguin History of the World</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="20"/>
+        <v>The Waste Land</v>
+      </c>
+      <c r="H7" s="95"/>
+      <c r="I7" s="95"/>
+      <c r="J7" s="93"/>
       <c r="K7" s="12">
         <f ca="1">$L$2</f>
         <v>20</v>
@@ -4503,13 +7692,13 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">RANK(INDEX(RNG,C8,0),RNG)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(RelValues,D8,0)&amp;""</f>
@@ -4517,18 +7706,18 @@
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Titles,D8,0)</f>
-        <v>Database Systems: The Complete Book</v>
+        <v>Pattern Recognition and Machine Learning</v>
       </c>
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">RANK(INDEX(RNG,C9,0),RNG)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(RelValues,D9,0)&amp;""</f>
@@ -4536,44 +7725,44 @@
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Titles,D9,0)</f>
-        <v>The Design of Everyday Things</v>
-      </c>
-      <c r="H9" s="32" t="s">
+        <v>Data Science from Scratch</v>
+      </c>
+      <c r="H9" s="95" t="s">
         <v>119</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="20">
+      <c r="I9" s="95"/>
+      <c r="J9" s="93">
         <f ca="1">K9/K10</f>
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K9" s="12">
         <f ca="1">COUNTIFS($E$6:$E$25,"X")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="3" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">RANK(INDEX(RNG,C10,0),RNG)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(RelValues,D10,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Titles,D10,0)</f>
-        <v>Ragtime</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="20"/>
+        <v>Computer Systems: A Programmer's Perspective</v>
+      </c>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="93"/>
       <c r="K10" s="12">
         <f>$J$3</f>
         <v>15</v>
@@ -4583,31 +7772,31 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="3" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">RANK(INDEX(RNG,C11,0),RNG)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(RelValues,D11,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Titles,D11,0)</f>
-        <v>Structure and Interpretation of Computer Programs</v>
+        <v>The Penguin History of the World</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="D12" s="3" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">RANK(INDEX(RNG,C12,0),RNG)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(RelValues,D12,0)&amp;""</f>
@@ -4615,44 +7804,44 @@
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Titles,D12,0)</f>
-        <v>Ariel</v>
-      </c>
-      <c r="H12" s="32" t="s">
+        <v>The Handmaid's Tale</v>
+      </c>
+      <c r="H12" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="20">
+      <c r="I12" s="95"/>
+      <c r="J12" s="93">
         <f ca="1">K12/K13</f>
-        <v>0.46666666666666667</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K12" s="12">
         <f ca="1">$L$2-COUNTIFS($E$6:$E$25,"X")</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="3" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">RANK(INDEX(RNG,C13,0),RNG)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(RelValues,D13,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Titles,D13,0)</f>
-        <v>Demonology and Witchcraft</v>
-      </c>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="20"/>
+        <v>Operating System Concepts</v>
+      </c>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="93"/>
       <c r="K13" s="12">
         <f ca="1">$J$2-$L$2</f>
         <v>30</v>
@@ -4662,31 +7851,31 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="3" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">RANK(INDEX(RNG,C14,0),RNG)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(RelValues,D14,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Titles,D14,0)</f>
-        <v>Swann's Way</v>
+        <v>The Design of Everyday Things</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="3" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">RANK(INDEX(RNG,C15,0),RNG)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(RelValues,D15,0)&amp;""</f>
@@ -4694,32 +7883,32 @@
       </c>
       <c r="F15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Titles,D15,0)</f>
-        <v>Computer Systems: A Programmer's Perspective</v>
-      </c>
-      <c r="H15" s="32" t="s">
+        <v>Cryptography and Network Security: Principles and Practice</v>
+      </c>
+      <c r="H15" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="20">
+      <c r="I15" s="95"/>
+      <c r="J15" s="93">
         <f ca="1">2*K15*K16/(K15+K16)</f>
-        <v>0.34285714285714286</v>
-      </c>
-      <c r="K15" s="22">
+        <v>0.57142857142857151</v>
+      </c>
+      <c r="K15" s="13">
         <f ca="1">$J$6</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16" s="3" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">RANK(INDEX(RNG,C16,0),RNG)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(RelValues,D16,0)&amp;""</f>
@@ -4727,63 +7916,63 @@
       </c>
       <c r="F16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(Titles,D16,0)</f>
-        <v>Dracula</v>
-      </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22">
+        <v>On the Origin of Species</v>
+      </c>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="13">
         <f ca="1">$J$9</f>
-        <v>0.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="3" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">RANK(INDEX(RNG,C17,0),RNG)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(RelValues,D17,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Titles,D17,0)</f>
-        <v>The Blind Assassin</v>
+        <v>Computer Networks</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="3">
         <v>13</v>
       </c>
       <c r="D18" s="3" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">RANK(INDEX(RNG,C18,0),RNG)</f>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(RelValues,D18,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Titles,D18,0)</f>
-        <v>The Wind in the Willows</v>
+        <v>Introduction to the Theory of Computation</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="3">
         <v>14</v>
       </c>
       <c r="D19" s="3" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">RANK(INDEX(RNG,C19,0),RNG)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(RelValues,D19,0)&amp;""</f>
@@ -4791,23 +7980,23 @@
       </c>
       <c r="F19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Titles,D19,0)</f>
-        <v>Brave New World</v>
-      </c>
-      <c r="I19" s="24" t="s">
+        <v>Dracula</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="3">
         <v>15</v>
       </c>
       <c r="D20" s="3" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">RANK(INDEX(RNG,C20,0),RNG)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(RelValues,D20,0)&amp;""</f>
@@ -4815,50 +8004,50 @@
       </c>
       <c r="F20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Titles,D20,0)</f>
-        <v>Adventures of Huckleberry Finn</v>
-      </c>
-      <c r="I20" s="26">
+        <v>Leaves of Grass</v>
+      </c>
+      <c r="I20" s="17">
         <v>0</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="16">
         <f ca="1">(I20*I20+1)*$K$15*$K$16/(I20*I20*$K$15+$K$16)</f>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="3" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">RANK(INDEX(RNG,C21,0),RNG)</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(RelValues,D21,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Titles,D21,0)</f>
-        <v>On the Road</v>
-      </c>
-      <c r="I21" s="26">
-        <f>I20+0.2</f>
+        <v>Concepts of Programming Languages</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" ref="I21:I30" si="0">I20+0.2</f>
         <v>0.2</v>
       </c>
-      <c r="J21" s="25">
-        <f t="shared" ref="J21:J38" ca="1" si="0">(I21*I21+1)*$K$15*$K$16/(I21*I21*$K$15+$K$16)</f>
-        <v>0.30291262135922331</v>
+      <c r="J21" s="16">
+        <f t="shared" ref="J21:J38" ca="1" si="1">(I21*I21+1)*$K$15*$K$16/(I21*I21*$K$15+$K$16)</f>
+        <v>0.50485436893203883</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="3" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">RANK(INDEX(RNG,C22,0),RNG)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(RelValues,D22,0)&amp;""</f>
@@ -4866,51 +8055,51 @@
       </c>
       <c r="F22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Titles,D22,0)</f>
-        <v>The Handmaid's Tale</v>
-      </c>
-      <c r="I22" s="26">
-        <f>I21+0.2</f>
+        <v>Death of a Salesman</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="J22" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.31071428571428572</v>
+      <c r="J22" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51785714285714302</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="3" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">RANK(INDEX(RNG,C23,0),RNG)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(RelValues,D23,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Titles,D23,0)</f>
-        <v>The Narrative of the Life of Frederick Douglass,  an American Slave</v>
-      </c>
-      <c r="I23" s="26">
-        <f>I22+0.2</f>
+        <v>Database Systems: The Complete Book</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="0"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="J23" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.32125984251968503</v>
+      <c r="J23" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.53543307086614178</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="3">
         <v>19</v>
       </c>
       <c r="D24" s="3" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">RANK(INDEX(RNG,C24,0),RNG)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(RelValues,D24,0)&amp;""</f>
@@ -4918,176 +8107,176 @@
       </c>
       <c r="F24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Titles,D24,0)</f>
-        <v>Crime and Punishment</v>
-      </c>
-      <c r="I24" s="26">
-        <f>I23+0.2</f>
+        <v>A Doll's House</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="J24" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.33243243243243237</v>
+      <c r="J24" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.55405405405405406</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="3" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">RANK(INDEX(RNG,C25,0),RNG)</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(RelValues,D25,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Titles,D25,0)</f>
-        <v>Introduction to the Theory of Computation</v>
-      </c>
-      <c r="I25" s="27">
-        <f>I24+0.2</f>
+        <v>Songs of Innocence and of Experience</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J25" s="28">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.34285714285714286</v>
+      <c r="J25" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.57142857142857151</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I26" s="26">
-        <f>I25+0.2</f>
+      <c r="I26" s="17">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="J26" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35192307692307689</v>
+      <c r="J26" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58653846153846145</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I27" s="26">
-        <f>I26+0.2</f>
+      <c r="I27" s="17">
+        <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="J27" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35951417004048591</v>
+      <c r="J27" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.59919028340080971</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="26">
-        <f>I27+0.2</f>
+      <c r="I28" s="17">
+        <f t="shared" si="0"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="J28" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36575342465753424</v>
+      <c r="J28" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6095890410958904</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
-      <c r="I29" s="26">
-        <f>I28+0.2</f>
+      <c r="I29" s="17">
+        <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="J29" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37084548104956266</v>
+      <c r="J29" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61807580174927113</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
-      <c r="I30" s="26">
-        <f>I29+0.2</f>
+      <c r="I30" s="17">
+        <f t="shared" si="0"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="J30" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.37500000000000006</v>
+      <c r="J30" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.625</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31" s="2"/>
-      <c r="I31" s="26">
-        <f>I30+1</f>
+      <c r="I31" s="17">
+        <f t="shared" ref="I31:I38" si="2">I30+1</f>
         <v>3</v>
       </c>
-      <c r="J31" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.38709677419354849</v>
+      <c r="J31" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.64516129032258052</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
-      <c r="I32" s="26">
-        <f>I31+1</f>
+      <c r="I32" s="17">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="J32" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3923076923076923</v>
+      <c r="J32" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="33" spans="5:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
-      <c r="I33" s="26">
-        <f>I32+1</f>
+      <c r="I33" s="17">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="J33" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39493670886075949</v>
+      <c r="J33" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65822784810126578</v>
       </c>
     </row>
     <row r="34" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="26">
-        <f>I33+1</f>
+      <c r="I34" s="17">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J34" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39642857142857146</v>
+      <c r="J34" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66071428571428559</v>
       </c>
     </row>
     <row r="35" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="26">
-        <f>I34+1</f>
+      <c r="I35" s="17">
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="J35" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39735099337748347</v>
+      <c r="J35" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6622516556291389</v>
       </c>
     </row>
     <row r="36" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="26">
-        <f>I35+1</f>
+      <c r="I36" s="17">
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J36" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39795918367346944</v>
+      <c r="J36" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66326530612244894</v>
       </c>
     </row>
     <row r="37" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="26">
-        <f>I36+1</f>
+      <c r="I37" s="17">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="J37" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39838056680161943</v>
+      <c r="J37" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66396761133603244</v>
       </c>
     </row>
     <row r="38" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="26">
-        <f>I37+1</f>
+      <c r="I38" s="17">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J38" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.39868421052631581</v>
+      <c r="J38" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.66447368421052633</v>
       </c>
     </row>
   </sheetData>
@@ -5131,359 +8320,359 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="O2" s="24" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="25">
         <f ca="1">MIN(_xlfn.CEILING.MATH(RAND()*C4),C5)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
         <f t="shared" ref="D3:L3" ca="1" si="0">MIN(_xlfn.CEILING.MATH(RAND()*D4),D5)</f>
+        <v>10</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
-      <c r="E3" s="35">
+      <c r="F3" s="25">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F3" s="35">
+        <v>1</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H3" s="25">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="G3" s="35">
+      <c r="I3" s="25">
         <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="25">
+        <f ca="1">SUM(C3:L3)</f>
+        <v>47</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="28">
         <v>10</v>
       </c>
-      <c r="H3" s="35">
-        <f t="shared" ca="1" si="0"/>
+      <c r="S3" s="28">
         <v>10</v>
       </c>
-      <c r="I3" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="J3" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K3" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L3" s="35">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="35">
-        <f ca="1">SUM(C3:L3)</f>
-        <v>69</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="R3" s="38">
-        <v>10</v>
-      </c>
-      <c r="S3" s="38">
-        <v>10</v>
-      </c>
     </row>
     <row r="4" spans="2:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="25">
         <f>$R$3</f>
         <v>10</v>
       </c>
-      <c r="D4" s="35">
-        <f t="shared" ref="D4:H4" si="1">$R$3</f>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:G4" si="1">$R$3</f>
         <v>10</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="25">
         <f>$S$3</f>
         <v>10</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="25">
         <f t="shared" ref="I4:L4" si="2">$S$3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="25">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="35">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="25">
         <f>SUM(C4:L4)</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="25">
         <f ca="1">_xlfn.CEILING.MATH(RAND()*50)</f>
-        <v>34</v>
-      </c>
-      <c r="D5" s="35">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25">
         <f t="shared" ref="D5:L5" ca="1" si="3">_xlfn.CEILING.MATH(RAND()*50)</f>
-        <v>28</v>
-      </c>
-      <c r="E5" s="35">
+        <v>38</v>
+      </c>
+      <c r="E5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="F5" s="35">
+        <v>17</v>
+      </c>
+      <c r="F5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="G5" s="35">
+        <v>44</v>
+      </c>
+      <c r="G5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="H5" s="35">
+        <v>23</v>
+      </c>
+      <c r="H5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="I5" s="35">
+        <v>39</v>
+      </c>
+      <c r="I5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
-      </c>
-      <c r="J5" s="35">
+        <v>18</v>
+      </c>
+      <c r="J5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
-      </c>
-      <c r="K5" s="35">
+        <v>46</v>
+      </c>
+      <c r="K5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L5" s="35">
+        <v>20</v>
+      </c>
+      <c r="L5" s="25">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="35">
+        <v>24</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25">
         <f ca="1">SUM(C5:L5)</f>
-        <v>234</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="30"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="2:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="26">
         <f ca="1">C3/C4</f>
-        <v>0.4</v>
-      </c>
-      <c r="D7" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="26">
         <f t="shared" ref="D7:L7" ca="1" si="4">D3/D4</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="36">
+      <c r="F7" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="26">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="26">
         <f t="shared" ca="1" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="G7" s="36">
+      <c r="I7" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="J7" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I7" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="K7" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="J7" s="36">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="26">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="36">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="36">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="36">
+        <v>0.4</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="26">
         <f ca="1">AVERAGE(C7:L7)</f>
-        <v>0.69000000000000006</v>
-      </c>
-      <c r="O7" s="36">
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="O7" s="26">
         <f t="shared" ref="O7" ca="1" si="5">O3/O4</f>
-        <v>0.69</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="26">
         <f ca="1">C3/C5</f>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="D8" s="36">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D8" s="26">
         <f t="shared" ref="D8:L8" ca="1" si="6">D3/D5</f>
-        <v>0.17857142857142858</v>
-      </c>
-      <c r="E8" s="36">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="F8" s="36">
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="F8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="36">
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="G8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="H8" s="36">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="H8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="I8" s="36">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="I8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.20930232558139536</v>
-      </c>
-      <c r="J8" s="36">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="J8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K8" s="36">
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="K8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L8" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="L8" s="26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="36">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="26">
         <f ca="1">AVERAGE(C8:L8)</f>
-        <v>0.37568944393499798</v>
-      </c>
-      <c r="O8" s="36">
+        <v>0.18564242192052124</v>
+      </c>
+      <c r="O8" s="26">
         <f t="shared" ref="O8" ca="1" si="7">O3/O5</f>
-        <v>0.29487179487179488</v>
+        <v>0.16906474820143885</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
+      <c r="B14" s="95"/>
     </row>
     <row r="15" spans="2:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="32"/>
+      <c r="B15" s="95"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="95" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
+      <c r="B19" s="95"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="32"/>
+      <c r="B20" s="95"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="32"/>
+      <c r="B21" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5520,22 +8709,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="I2" s="39" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="I2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="J2" s="11">
         <f>NDocs</f>
         <v>50</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="29" t="s">
         <v>120</v>
       </c>
       <c r="L2" s="11">
@@ -5544,13 +8733,13 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="I3" s="39" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="I3" s="29" t="s">
         <v>111</v>
       </c>
       <c r="J3" s="11">
@@ -5591,7 +8780,7 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="94" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="3">
@@ -5599,19 +8788,19 @@
       </c>
       <c r="D6" s="3" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">RANK(INDEX(RNG,C6,0),RNG)</f>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(RelValues,D6,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(Titles,D6,0)</f>
-        <v>Operating System Concepts</v>
+        <v>Jane Eyre</v>
       </c>
       <c r="H6" s="3">
         <f ca="1">COUNTIFS($E$6:E6,"X")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f>C6</f>
@@ -5621,27 +8810,27 @@
         <f>$J$3</f>
         <v>15</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="14">
         <f ca="1">H6/I6</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
         <f ca="1">H6/J6</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
         <f ca="1">L6</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="D7" s="3" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">RANK(INDEX(RNG,C7,0),RNG)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(RelValues,D7,0)&amp;""</f>
@@ -5649,11 +8838,11 @@
       </c>
       <c r="F7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(Titles,D7,0)</f>
-        <v>The Penguin History of the World</v>
+        <v>The Waste Land</v>
       </c>
       <c r="H7" s="3">
         <f ca="1">COUNTIFS($E$6:E7,"X")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ref="I7:I25" si="0">C7</f>
@@ -5663,27 +8852,27 @@
         <f t="shared" ref="J7:J25" si="1">$J$3</f>
         <v>15</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="14">
         <f t="shared" ref="K7:K25" ca="1" si="2">H7/I7</f>
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
         <f t="shared" ref="L7:L25" ca="1" si="3">H7/J7</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
         <f ca="1">L7-L6</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="D8" s="3" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">RANK(INDEX(RNG,C8,0),RNG)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(RelValues,D8,0)&amp;""</f>
@@ -5691,11 +8880,11 @@
       </c>
       <c r="F8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(Titles,D8,0)</f>
-        <v>Database Systems: The Complete Book</v>
+        <v>Pattern Recognition and Machine Learning</v>
       </c>
       <c r="H8" s="3">
         <f ca="1">COUNTIFS($E$6:E8,"X")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
@@ -5705,27 +8894,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L8" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L8" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="M8" s="23">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M8" s="14">
         <f t="shared" ref="M8:M25" ca="1" si="4">L8-L7</f>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">RANK(INDEX(RNG,C9,0),RNG)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(RelValues,D9,0)&amp;""</f>
@@ -5733,11 +8922,11 @@
       </c>
       <c r="F9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(Titles,D9,0)</f>
-        <v>The Design of Everyday Things</v>
+        <v>Data Science from Scratch</v>
       </c>
       <c r="H9" s="3">
         <f ca="1">COUNTIFS($E$6:E9,"X")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
@@ -5747,35 +8936,35 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="L9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L9" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M9" s="23">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M9" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>6.666666666666668E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="3" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">RANK(INDEX(RNG,C10,0),RNG)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(RelValues,D10,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(Titles,D10,0)</f>
-        <v>Ragtime</v>
+        <v>Computer Systems: A Programmer's Perspective</v>
       </c>
       <c r="H10" s="3">
         <f ca="1">COUNTIFS($E$6:E10,"X")</f>
@@ -5789,39 +8978,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="14">
         <f t="shared" ca="1" si="2"/>
         <v>0.6</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.666666666666668E-2</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="3" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">RANK(INDEX(RNG,C11,0),RNG)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(RelValues,D11,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(Titles,D11,0)</f>
-        <v>Structure and Interpretation of Computer Programs</v>
+        <v>The Penguin History of the World</v>
       </c>
       <c r="H11" s="3">
         <f ca="1">COUNTIFS($E$6:E11,"X")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
@@ -5831,27 +9020,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L11" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="M11" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6666666666666652E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="D12" s="3" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">RANK(INDEX(RNG,C12,0),RNG)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(RelValues,D12,0)&amp;""</f>
@@ -5859,11 +9048,11 @@
       </c>
       <c r="F12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(Titles,D12,0)</f>
-        <v>Ariel</v>
+        <v>The Handmaid's Tale</v>
       </c>
       <c r="H12" s="3">
         <f ca="1">COUNTIFS($E$6:E12,"X")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -5873,35 +9062,35 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L12" s="23">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L12" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="M12" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="3" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">RANK(INDEX(RNG,C13,0),RNG)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(RelValues,D13,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(Titles,D13,0)</f>
-        <v>Demonology and Witchcraft</v>
+        <v>Operating System Concepts</v>
       </c>
       <c r="H13" s="3">
         <f ca="1">COUNTIFS($E$6:E13,"X")</f>
@@ -5915,39 +9104,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="14">
         <f t="shared" ca="1" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="14">
         <f t="shared" ca="1" si="3"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="3" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">RANK(INDEX(RNG,C14,0),RNG)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(RelValues,D14,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(Titles,D14,0)</f>
-        <v>Swann's Way</v>
+        <v>The Design of Everyday Things</v>
       </c>
       <c r="H14" s="3">
         <f ca="1">COUNTIFS($E$6:E14,"X")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="0"/>
@@ -5957,27 +9146,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L14" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L14" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="M14" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M14" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="3">
         <v>10</v>
       </c>
       <c r="D15" s="3" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">RANK(INDEX(RNG,C15,0),RNG)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(RelValues,D15,0)&amp;""</f>
@@ -5985,11 +9174,11 @@
       </c>
       <c r="F15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(Titles,D15,0)</f>
-        <v>Computer Systems: A Programmer's Perspective</v>
+        <v>Cryptography and Network Security: Principles and Practice</v>
       </c>
       <c r="H15" s="3">
         <f ca="1">COUNTIFS($E$6:E15,"X")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="0"/>
@@ -5999,27 +9188,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M15" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6666666666666652E-2</v>
+        <v>6.6666666666666707E-2</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="3">
         <v>11</v>
       </c>
       <c r="D16" s="3" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">RANK(INDEX(RNG,C16,0),RNG)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(RelValues,D16,0)&amp;""</f>
@@ -6027,11 +9216,11 @@
       </c>
       <c r="F16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(Titles,D16,0)</f>
-        <v>Dracula</v>
+        <v>On the Origin of Species</v>
       </c>
       <c r="H16" s="3">
         <f ca="1">COUNTIFS($E$6:E16,"X")</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="0"/>
@@ -6041,39 +9230,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="L16" s="23">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="L16" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M16" s="23">
+        <v>0.4</v>
+      </c>
+      <c r="M16" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="3" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">RANK(INDEX(RNG,C17,0),RNG)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(RelValues,D17,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(Titles,D17,0)</f>
-        <v>The Blind Assassin</v>
+        <v>Computer Networks</v>
       </c>
       <c r="H17" s="3">
         <f ca="1">COUNTIFS($E$6:E17,"X")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="0"/>
@@ -6083,39 +9272,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="L17" s="23">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L17" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M17" s="23">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="M17" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="3">
         <v>13</v>
       </c>
       <c r="D18" s="3" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">RANK(INDEX(RNG,C18,0),RNG)</f>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(RelValues,D18,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(Titles,D18,0)</f>
-        <v>The Wind in the Willows</v>
+        <v>Introduction to the Theory of Computation</v>
       </c>
       <c r="H18" s="3">
         <f ca="1">COUNTIFS($E$6:E18,"X")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="0"/>
@@ -6125,27 +9314,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38461538461538464</v>
-      </c>
-      <c r="L18" s="23">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="L18" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M18" s="23">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M18" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="3">
         <v>14</v>
       </c>
       <c r="D19" s="3" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">RANK(INDEX(RNG,C19,0),RNG)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(RelValues,D19,0)&amp;""</f>
@@ -6153,11 +9342,11 @@
       </c>
       <c r="F19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(Titles,D19,0)</f>
-        <v>Brave New World</v>
+        <v>Dracula</v>
       </c>
       <c r="H19" s="3">
         <f ca="1">COUNTIFS($E$6:E19,"X")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="0"/>
@@ -6167,27 +9356,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="L19" s="23">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L19" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M19" s="23">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M19" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="3">
         <v>15</v>
       </c>
       <c r="D20" s="3" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">RANK(INDEX(RNG,C20,0),RNG)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(RelValues,D20,0)&amp;""</f>
@@ -6195,11 +9384,11 @@
       </c>
       <c r="F20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(Titles,D20,0)</f>
-        <v>Adventures of Huckleberry Finn</v>
+        <v>Leaves of Grass</v>
       </c>
       <c r="H20" s="3">
         <f ca="1">COUNTIFS($E$6:E20,"X")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="0"/>
@@ -6209,39 +9398,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L20" s="23">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="L20" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M20" s="23">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="M20" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="3" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">RANK(INDEX(RNG,C21,0),RNG)</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(RelValues,D21,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(Titles,D21,0)</f>
-        <v>On the Road</v>
+        <v>Concepts of Programming Languages</v>
       </c>
       <c r="H21" s="3">
         <f ca="1">COUNTIFS($E$6:E21,"X")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="0"/>
@@ -6251,27 +9440,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3125</v>
-      </c>
-      <c r="L21" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="L21" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M21" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="M21" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="3">
         <v>17</v>
       </c>
       <c r="D22" s="3" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">RANK(INDEX(RNG,C22,0),RNG)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(RelValues,D22,0)&amp;""</f>
@@ -6279,11 +9468,11 @@
       </c>
       <c r="F22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(Titles,D22,0)</f>
-        <v>The Handmaid's Tale</v>
+        <v>Death of a Salesman</v>
       </c>
       <c r="H22" s="3">
         <f ca="1">COUNTIFS($E$6:E22,"X")</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="0"/>
@@ -6293,39 +9482,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="L22" s="23">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="L22" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M22" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="M22" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="3" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">RANK(INDEX(RNG,C23,0),RNG)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(RelValues,D23,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="F23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(Titles,D23,0)</f>
-        <v>The Narrative of the Life of Frederick Douglass,  an American Slave</v>
+        <v>Database Systems: The Complete Book</v>
       </c>
       <c r="H23" s="3">
         <f ca="1">COUNTIFS($E$6:E23,"X")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="0"/>
@@ -6335,27 +9524,27 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L23" s="23">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L23" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M23" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M23" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6.6666666666666652E-2</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="3">
         <v>19</v>
       </c>
       <c r="D24" s="3" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">RANK(INDEX(RNG,C24,0),RNG)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(RelValues,D24,0)&amp;""</f>
@@ -6363,11 +9552,11 @@
       </c>
       <c r="F24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(Titles,D24,0)</f>
-        <v>Crime and Punishment</v>
+        <v>A Doll's House</v>
       </c>
       <c r="H24" s="3">
         <f ca="1">COUNTIFS($E$6:E24,"X")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="0"/>
@@ -6377,39 +9566,39 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26315789473684209</v>
-      </c>
-      <c r="L24" s="23">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="L24" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M24" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M24" s="14">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="21"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="3" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">RANK(INDEX(RNG,C25,0),RNG)</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(RelValues,D25,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="F25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(Titles,D25,0)</f>
-        <v>Introduction to the Theory of Computation</v>
+        <v>Songs of Innocence and of Experience</v>
       </c>
       <c r="H25" s="3">
         <f ca="1">COUNTIFS($E$6:E25,"X")</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="0"/>
@@ -6419,28 +9608,28 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="L25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
-      </c>
-      <c r="M25" s="23">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M25" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>6.6666666666666707E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="40">
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96">
         <f ca="1">SUMPRODUCT(K6:K25,M6:M25)</f>
-        <v>0.25888888888888889</v>
+        <v>0.36037749287749288</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>154</v>
@@ -6448,10 +9637,10 @@
     </row>
     <row r="29" spans="2:13" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="2"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="40"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E30" s="2"/>
@@ -6489,7 +9678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEDF31F-7326-B94F-98B4-79B566C36701}">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="116" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="116" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
@@ -6510,23 +9699,23 @@
   <sheetData>
     <row r="1" spans="2:15" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="J2" s="29" t="s">
         <v>110</v>
       </c>
       <c r="K2" s="11">
         <f>NDocs</f>
         <v>50</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="29" t="s">
         <v>120</v>
       </c>
       <c r="M2" s="11">
@@ -6535,14 +9724,14 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="J3" s="39" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="J3" s="29" t="s">
         <v>111</v>
       </c>
       <c r="K3" s="11">
@@ -6567,27 +9756,27 @@
       <c r="G5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="O5" s="54" t="s">
+      <c r="O5" s="43" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="94" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="3">
@@ -6595,47 +9784,47 @@
       </c>
       <c r="D6" s="3" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(GradeValues,E6,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="3" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">RANK(INDEX(RNG,C6,0),RNG)</f>
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F6" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F6" ca="1">INDEX(RelValues,E6,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G6" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G6" ca="1">INDEX(Titles,E6,0)</f>
-        <v>Operating System Concepts</v>
-      </c>
-      <c r="J6" s="43">
+        <v>Jane Eyre</v>
+      </c>
+      <c r="J6" s="32">
         <f ca="1">D6</f>
-        <v>2</v>
-      </c>
-      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="K6" s="33">
         <f ca="1">J6/C6/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L6" s="49">
+        <v>0</v>
+      </c>
+      <c r="L6" s="38">
         <f>1/LOG(C6+1,2)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="39">
         <f ca="1">SUMPRODUCT($D$6:D6,$L$6:L6)</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="55">
+        <v>0</v>
+      </c>
+      <c r="N6" s="44">
         <f>SUMPRODUCT($D$30:D30,$L$6:L6)</f>
         <v>3</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="45">
         <f ca="1">M6/N6</f>
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -6645,7 +9834,7 @@
       </c>
       <c r="E7" s="3" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">RANK(INDEX(RNG,C7,0),RNG)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F7" ca="1">INDEX(RelValues,E7,0)&amp;""</f>
@@ -6653,35 +9842,35 @@
       </c>
       <c r="G7" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G7" ca="1">INDEX(Titles,E7,0)</f>
-        <v>The Penguin History of the World</v>
-      </c>
-      <c r="J7" s="43">
+        <v>The Waste Land</v>
+      </c>
+      <c r="J7" s="32">
         <f ca="1">J6+D7</f>
-        <v>2</v>
-      </c>
-      <c r="K7" s="44">
+        <v>0</v>
+      </c>
+      <c r="K7" s="33">
         <f t="shared" ref="K7:K25" ca="1" si="0">J7/C7/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L7" s="49">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38">
         <f t="shared" ref="L7:L25" si="1">1/LOG(C7+1,2)</f>
         <v>0.63092975357145742</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="39">
         <f ca="1">SUMPRODUCT($D$6:D7,$L$6:L7)</f>
-        <v>2</v>
-      </c>
-      <c r="N7" s="55">
+        <v>0</v>
+      </c>
+      <c r="N7" s="44">
         <f>SUMPRODUCT($D$30:D31,$L$6:L7)</f>
         <v>4.8927892607143724</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="45">
         <f t="shared" ref="O7:O25" ca="1" si="2">M7/N7</f>
-        <v>0.40876479517697228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -6691,7 +9880,7 @@
       </c>
       <c r="E8" s="3" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">RANK(INDEX(RNG,C8,0),RNG)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F8" ca="1">INDEX(RelValues,E8,0)&amp;""</f>
@@ -6699,45 +9888,45 @@
       </c>
       <c r="G8" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G8" ca="1">INDEX(Titles,E8,0)</f>
-        <v>Database Systems: The Complete Book</v>
-      </c>
-      <c r="J8" s="43">
+        <v>Pattern Recognition and Machine Learning</v>
+      </c>
+      <c r="J8" s="32">
         <f t="shared" ref="J8:J25" ca="1" si="3">J7+D8</f>
-        <v>5</v>
-      </c>
-      <c r="K8" s="44">
+        <v>3</v>
+      </c>
+      <c r="K8" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L8" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L8" s="38">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="39">
         <f ca="1">SUMPRODUCT($D$6:D8,$L$6:L8)</f>
-        <v>3.5</v>
-      </c>
-      <c r="N8" s="55">
+        <v>1.5</v>
+      </c>
+      <c r="N8" s="44">
         <f>SUMPRODUCT($D$30:D32,$L$6:L8)</f>
         <v>6.3927892607143724</v>
       </c>
-      <c r="O8" s="56">
+      <c r="O8" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54749184702654929</v>
+        <v>0.23463936301137825</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="D9" s="3" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(GradeValues,E9,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">RANK(INDEX(RNG,C9,0),RNG)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F9" ca="1">INDEX(RelValues,E9,0)&amp;""</f>
@@ -6745,127 +9934,127 @@
       </c>
       <c r="G9" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G9" ca="1">INDEX(Titles,E9,0)</f>
-        <v>The Design of Everyday Things</v>
-      </c>
-      <c r="J9" s="43">
+        <v>Data Science from Scratch</v>
+      </c>
+      <c r="J9" s="32">
         <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="38">
         <f t="shared" si="1"/>
         <v>0.43067655807339306</v>
       </c>
-      <c r="M9" s="50">
+      <c r="M9" s="39">
         <f ca="1">SUMPRODUCT($D$6:D9,$L$6:L9)</f>
-        <v>3.9306765580733929</v>
-      </c>
-      <c r="N9" s="55">
+        <v>2.7920296742201791</v>
+      </c>
+      <c r="N9" s="44">
         <f>SUMPRODUCT($D$30:D33,$L$6:L9)</f>
         <v>7.2541423768611581</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54185268965925404</v>
+        <v>0.38488763097978795</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="D10" s="3" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(GradeValues,E10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">RANK(INDEX(RNG,C10,0),RNG)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F10" ca="1">INDEX(RelValues,E10,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G10" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G10" ca="1">INDEX(Titles,E10,0)</f>
-        <v>Ragtime</v>
-      </c>
-      <c r="J10" s="43">
+        <v>Computer Systems: A Programmer's Perspective</v>
+      </c>
+      <c r="J10" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="K10" s="44">
+        <v>7</v>
+      </c>
+      <c r="K10" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="L10" s="49">
+        <v>0.46666666666666662</v>
+      </c>
+      <c r="L10" s="38">
         <f t="shared" si="1"/>
         <v>0.38685280723454163</v>
       </c>
-      <c r="M10" s="50">
+      <c r="M10" s="39">
         <f ca="1">SUMPRODUCT($D$6:D10,$L$6:L10)</f>
-        <v>3.9306765580733929</v>
-      </c>
-      <c r="N10" s="55">
+        <v>3.1788824814547207</v>
+      </c>
+      <c r="N10" s="44">
         <f>SUMPRODUCT($D$30:D34,$L$6:L10)</f>
         <v>8.0278479913302405</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4896301676761155</v>
+        <v>0.39598189762533975</v>
       </c>
     </row>
     <row r="11" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="D11" s="3" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(GradeValues,E11,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="3" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">RANK(INDEX(RNG,C11,0),RNG)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F11" ca="1">INDEX(RelValues,E11,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G11" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G11" ca="1">INDEX(Titles,E11,0)</f>
-        <v>Structure and Interpretation of Computer Programs</v>
-      </c>
-      <c r="J11" s="43">
+        <v>The Penguin History of the World</v>
+      </c>
+      <c r="J11" s="32">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0.3888888888888889</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="38">
         <f t="shared" si="1"/>
         <v>0.35620718710802218</v>
       </c>
-      <c r="M11" s="50">
+      <c r="M11" s="39">
         <f ca="1">SUMPRODUCT($D$6:D11,$L$6:L11)</f>
-        <v>4.2868837451814148</v>
-      </c>
-      <c r="N11" s="55">
+        <v>3.1788824814547207</v>
+      </c>
+      <c r="N11" s="44">
         <f>SUMPRODUCT($D$30:D35,$L$6:L11)</f>
         <v>8.7402623655462843</v>
       </c>
-      <c r="O11" s="56">
+      <c r="O11" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49047540747519375</v>
+        <v>0.36370561300147358</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -6875,7 +10064,7 @@
       </c>
       <c r="E12" s="3" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">RANK(INDEX(RNG,C12,0),RNG)</f>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F12" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F12" ca="1">INDEX(RelValues,E12,0)&amp;""</f>
@@ -6883,127 +10072,127 @@
       </c>
       <c r="G12" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G12" ca="1">INDEX(Titles,E12,0)</f>
-        <v>Ariel</v>
-      </c>
-      <c r="J12" s="43">
+        <v>The Handmaid's Tale</v>
+      </c>
+      <c r="J12" s="32">
         <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="33">
         <f t="shared" ca="1" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="38">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="39">
         <f ca="1">SUMPRODUCT($D$6:D12,$L$6:L12)</f>
-        <v>4.2868837451814148</v>
-      </c>
-      <c r="N12" s="55">
+        <v>3.1788824814547207</v>
+      </c>
+      <c r="N12" s="44">
         <f>SUMPRODUCT($D$30:D36,$L$6:L12)</f>
         <v>9.4069290322129504</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45571554016209465</v>
+        <v>0.33792988876274094</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="D13" s="3" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(GradeValues,E13,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">RANK(INDEX(RNG,C13,0),RNG)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F13" ca="1">INDEX(RelValues,E13,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G13" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G13" ca="1">INDEX(Titles,E13,0)</f>
-        <v>Demonology and Witchcraft</v>
-      </c>
-      <c r="J13" s="43">
+        <v>Operating System Concepts</v>
+      </c>
+      <c r="J13" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K13" s="44">
+        <v>9</v>
+      </c>
+      <c r="K13" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="L13" s="49">
+        <v>0.375</v>
+      </c>
+      <c r="L13" s="38">
         <f t="shared" si="1"/>
         <v>0.31546487678572871</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="39">
         <f ca="1">SUMPRODUCT($D$6:D13,$L$6:L13)</f>
-        <v>4.2868837451814148</v>
-      </c>
-      <c r="N13" s="55">
+        <v>3.8098122350261781</v>
+      </c>
+      <c r="N13" s="44">
         <f>SUMPRODUCT($D$30:D37,$L$6:L13)</f>
         <v>9.7223939089986793</v>
       </c>
-      <c r="O13" s="56">
+      <c r="O13" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44092882733476141</v>
+        <v>0.39185948138759941</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="D14" s="3" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(GradeValues,E14,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">RANK(INDEX(RNG,C14,0),RNG)</f>
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F14" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F14" ca="1">INDEX(RelValues,E14,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G14" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G14" ca="1">INDEX(Titles,E14,0)</f>
-        <v>Swann's Way</v>
-      </c>
-      <c r="J14" s="43">
+        <v>The Design of Everyday Things</v>
+      </c>
+      <c r="J14" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="K14" s="44">
+        <v>10</v>
+      </c>
+      <c r="K14" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25925925925925924</v>
-      </c>
-      <c r="L14" s="49">
+        <v>0.37037037037037041</v>
+      </c>
+      <c r="L14" s="38">
         <f t="shared" si="1"/>
         <v>0.30102999566398114</v>
       </c>
-      <c r="M14" s="50">
+      <c r="M14" s="39">
         <f ca="1">SUMPRODUCT($D$6:D14,$L$6:L14)</f>
-        <v>4.2868837451814148</v>
-      </c>
-      <c r="N14" s="55">
+        <v>4.1108422306901593</v>
+      </c>
+      <c r="N14" s="44">
         <f>SUMPRODUCT($D$30:D38,$L$6:L14)</f>
         <v>10.023423904662661</v>
       </c>
-      <c r="O14" s="56">
+      <c r="O14" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42768656558436657</v>
+        <v>0.41012355356714908</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -7013,7 +10202,7 @@
       </c>
       <c r="E15" s="3" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">RANK(INDEX(RNG,C15,0),RNG)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F15" ca="1">INDEX(RelValues,E15,0)&amp;""</f>
@@ -7021,35 +10210,35 @@
       </c>
       <c r="G15" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G15" ca="1">INDEX(Titles,E15,0)</f>
-        <v>Computer Systems: A Programmer's Perspective</v>
-      </c>
-      <c r="J15" s="43">
+        <v>Cryptography and Network Security: Principles and Practice</v>
+      </c>
+      <c r="J15" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K15" s="44">
+        <v>11</v>
+      </c>
+      <c r="K15" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="L15" s="49">
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="L15" s="38">
         <f t="shared" si="1"/>
         <v>0.28906482631788782</v>
       </c>
-      <c r="M15" s="50">
+      <c r="M15" s="39">
         <f ca="1">SUMPRODUCT($D$6:D15,$L$6:L15)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N15" s="55">
+        <v>4.399907057008047</v>
+      </c>
+      <c r="N15" s="44">
         <f>SUMPRODUCT($D$30:D39,$L$6:L15)</f>
         <v>10.312488730980549</v>
       </c>
-      <c r="O15" s="56">
+      <c r="O15" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44372883121339463</v>
+        <v>0.42665812024501359</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="3">
         <v>11</v>
       </c>
@@ -7059,7 +10248,7 @@
       </c>
       <c r="E16" s="3" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">RANK(INDEX(RNG,C16,0),RNG)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F16" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F16" ca="1">INDEX(RelValues,E16,0)&amp;""</f>
@@ -7067,127 +10256,127 @@
       </c>
       <c r="G16" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDEX(Titles,E16,0)</f>
-        <v>Dracula</v>
-      </c>
-      <c r="J16" s="43">
+        <v>On the Origin of Species</v>
+      </c>
+      <c r="J16" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K16" s="44">
+        <v>11</v>
+      </c>
+      <c r="K16" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24242424242424243</v>
-      </c>
-      <c r="L16" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L16" s="38">
         <f t="shared" si="1"/>
         <v>0.27894294565112981</v>
       </c>
-      <c r="M16" s="50">
+      <c r="M16" s="39">
         <f ca="1">SUMPRODUCT($D$6:D16,$L$6:L16)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N16" s="55">
+        <v>4.399907057008047</v>
+      </c>
+      <c r="N16" s="44">
         <f>SUMPRODUCT($D$30:D40,$L$6:L16)</f>
         <v>10.591431676631679</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43204249540649076</v>
+        <v>0.41542136996604029</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="21"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="3" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(GradeValues,E17,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">RANK(INDEX(RNG,C17,0),RNG)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F17" ca="1">INDEX(RelValues,E17,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G17" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">INDEX(Titles,E17,0)</f>
-        <v>The Blind Assassin</v>
-      </c>
-      <c r="J17" s="43">
+        <v>Computer Networks</v>
+      </c>
+      <c r="J17" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K17" s="44">
+        <v>12</v>
+      </c>
+      <c r="K17" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L17" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L17" s="38">
         <f t="shared" si="1"/>
         <v>0.27023815442731974</v>
       </c>
-      <c r="M17" s="50">
+      <c r="M17" s="39">
         <f ca="1">SUMPRODUCT($D$6:D17,$L$6:L17)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N17" s="55">
+        <v>4.6701452114353668</v>
+      </c>
+      <c r="N17" s="44">
         <f>SUMPRODUCT($D$30:D41,$L$6:L17)</f>
         <v>10.861669831058999</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42129328571693048</v>
+        <v>0.42996567600324798</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="3">
         <v>13</v>
       </c>
       <c r="D18" s="3" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">INDEX(GradeValues,E18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="3" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">RANK(INDEX(RNG,C18,0),RNG)</f>
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F18" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F18" ca="1">INDEX(RelValues,E18,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G18" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDEX(Titles,E18,0)</f>
-        <v>The Wind in the Willows</v>
-      </c>
-      <c r="J18" s="43">
+        <v>Introduction to the Theory of Computation</v>
+      </c>
+      <c r="J18" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K18" s="44">
+        <v>14</v>
+      </c>
+      <c r="K18" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20512820512820515</v>
-      </c>
-      <c r="L18" s="49">
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="L18" s="38">
         <f t="shared" si="1"/>
         <v>0.26264953503719357</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="39">
         <f ca="1">SUMPRODUCT($D$6:D18,$L$6:L18)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N18" s="55">
+        <v>5.1954442815097543</v>
+      </c>
+      <c r="N18" s="44">
         <f>SUMPRODUCT($D$30:D42,$L$6:L18)</f>
         <v>11.124319366096191</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41134638631874521</v>
+        <v>0.46703480100940042</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="3">
         <v>14</v>
       </c>
@@ -7197,7 +10386,7 @@
       </c>
       <c r="E19" s="3" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">RANK(INDEX(RNG,C19,0),RNG)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F19" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F19" ca="1">INDEX(RelValues,E19,0)&amp;""</f>
@@ -7205,35 +10394,35 @@
       </c>
       <c r="G19" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDEX(Titles,E19,0)</f>
-        <v>Brave New World</v>
-      </c>
-      <c r="J19" s="43">
+        <v>Dracula</v>
+      </c>
+      <c r="J19" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K19" s="44">
+        <v>14</v>
+      </c>
+      <c r="K19" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19047619047619047</v>
-      </c>
-      <c r="L19" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L19" s="38">
         <f t="shared" si="1"/>
         <v>0.2559580248098155</v>
       </c>
-      <c r="M19" s="50">
+      <c r="M19" s="39">
         <f ca="1">SUMPRODUCT($D$6:D19,$L$6:L19)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N19" s="55">
+        <v>5.1954442815097543</v>
+      </c>
+      <c r="N19" s="44">
         <f>SUMPRODUCT($D$30:D43,$L$6:L19)</f>
         <v>11.380277390906008</v>
       </c>
-      <c r="O19" s="56">
+      <c r="O19" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40209464271547091</v>
+        <v>0.45653054868956355</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="3">
         <v>15</v>
       </c>
@@ -7243,7 +10432,7 @@
       </c>
       <c r="E20" s="3" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">RANK(INDEX(RNG,C20,0),RNG)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F20" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F20" ca="1">INDEX(RelValues,E20,0)&amp;""</f>
@@ -7251,81 +10440,81 @@
       </c>
       <c r="G20" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDEX(Titles,E20,0)</f>
-        <v>Adventures of Huckleberry Finn</v>
-      </c>
-      <c r="J20" s="43">
+        <v>Leaves of Grass</v>
+      </c>
+      <c r="J20" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K20" s="44">
+        <v>14</v>
+      </c>
+      <c r="K20" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="L20" s="49">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L20" s="38">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="39">
         <f ca="1">SUMPRODUCT($D$6:D20,$L$6:L20)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N20" s="55">
+        <v>5.1954442815097543</v>
+      </c>
+      <c r="N20" s="44">
         <f>SUMPRODUCT($D$30:D44,$L$6:L20)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O20" s="56">
+      <c r="O20" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39345136987681362</v>
+        <v>0.44671714241073879</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="3">
         <v>16</v>
       </c>
       <c r="D21" s="3" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(GradeValues,E21,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">RANK(INDEX(RNG,C21,0),RNG)</f>
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F21" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F21" ca="1">INDEX(RelValues,E21,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDEX(Titles,E21,0)</f>
-        <v>On the Road</v>
-      </c>
-      <c r="J21" s="43">
+        <v>Concepts of Programming Languages</v>
+      </c>
+      <c r="J21" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K21" s="44">
+        <v>16</v>
+      </c>
+      <c r="K21" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L21" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L21" s="38">
         <f t="shared" si="1"/>
         <v>0.24465054211822598</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="39">
         <f ca="1">SUMPRODUCT($D$6:D21,$L$6:L21)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N21" s="55">
+        <v>5.6847453657462061</v>
+      </c>
+      <c r="N21" s="44">
         <f>SUMPRODUCT($D$30:D45,$L$6:L21)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O21" s="56">
+      <c r="O21" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39345136987681362</v>
+        <v>0.48878845918079689</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="21"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="3">
         <v>17</v>
       </c>
@@ -7335,7 +10524,7 @@
       </c>
       <c r="E22" s="3" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">RANK(INDEX(RNG,C22,0),RNG)</f>
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F22" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F22" ca="1">INDEX(RelValues,E22,0)&amp;""</f>
@@ -7343,81 +10532,81 @@
       </c>
       <c r="G22" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDEX(Titles,E22,0)</f>
-        <v>The Handmaid's Tale</v>
-      </c>
-      <c r="J22" s="43">
+        <v>Death of a Salesman</v>
+      </c>
+      <c r="J22" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K22" s="44">
+        <v>16</v>
+      </c>
+      <c r="K22" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15686274509803921</v>
-      </c>
-      <c r="L22" s="49">
+        <v>0.31372549019607843</v>
+      </c>
+      <c r="L22" s="38">
         <f t="shared" si="1"/>
         <v>0.23981246656813146</v>
       </c>
-      <c r="M22" s="50">
+      <c r="M22" s="39">
         <f ca="1">SUMPRODUCT($D$6:D22,$L$6:L22)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N22" s="55">
+        <v>5.6847453657462061</v>
+      </c>
+      <c r="N22" s="44">
         <f>SUMPRODUCT($D$30:D46,$L$6:L22)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O22" s="56">
+      <c r="O22" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39345136987681362</v>
+        <v>0.48878845918079689</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="21"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="3">
         <v>18</v>
       </c>
       <c r="D23" s="3" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(GradeValues,E23,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">RANK(INDEX(RNG,C23,0),RNG)</f>
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F23" ca="1">INDEX(RelValues,E23,0)&amp;""</f>
-        <v/>
+        <v>X</v>
       </c>
       <c r="G23" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDEX(Titles,E23,0)</f>
-        <v>The Narrative of the Life of Frederick Douglass,  an American Slave</v>
-      </c>
-      <c r="J23" s="43">
+        <v>Database Systems: The Complete Book</v>
+      </c>
+      <c r="J23" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K23" s="44">
+        <v>19</v>
+      </c>
+      <c r="K23" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="L23" s="49">
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="L23" s="38">
         <f t="shared" si="1"/>
         <v>0.23540891336663824</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="39">
         <f ca="1">SUMPRODUCT($D$6:D23,$L$6:L23)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N23" s="55">
+        <v>6.3909721058461209</v>
+      </c>
+      <c r="N23" s="44">
         <f>SUMPRODUCT($D$30:D47,$L$6:L23)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O23" s="56">
+      <c r="O23" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39345136987681362</v>
+        <v>0.54951158008005685</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="21"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="3">
         <v>19</v>
       </c>
@@ -7427,7 +10616,7 @@
       </c>
       <c r="E24" s="3" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">RANK(INDEX(RNG,C24,0),RNG)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F24" ca="1">INDEX(RelValues,E24,0)&amp;""</f>
@@ -7435,77 +10624,77 @@
       </c>
       <c r="G24" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G24" ca="1">INDEX(Titles,E24,0)</f>
-        <v>Crime and Punishment</v>
-      </c>
-      <c r="J24" s="43">
+        <v>A Doll's House</v>
+      </c>
+      <c r="J24" s="32">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="K24" s="44">
+        <v>19</v>
+      </c>
+      <c r="K24" s="33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14035087719298245</v>
-      </c>
-      <c r="L24" s="49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L24" s="38">
         <f t="shared" si="1"/>
         <v>0.23137821315975915</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="39">
         <f ca="1">SUMPRODUCT($D$6:D24,$L$6:L24)</f>
-        <v>4.5759485714993025</v>
-      </c>
-      <c r="N24" s="55">
+        <v>6.3909721058461209</v>
+      </c>
+      <c r="N24" s="44">
         <f>SUMPRODUCT($D$30:D48,$L$6:L24)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O24" s="56">
+      <c r="O24" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39345136987681362</v>
+        <v>0.54951158008005685</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="3">
         <v>20</v>
       </c>
       <c r="D25" s="3" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(GradeValues,E25,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">RANK(INDEX(RNG,C25,0),RNG)</f>
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="F25" ca="1">INDEX(RelValues,E25,0)&amp;""</f>
-        <v>X</v>
+        <v/>
       </c>
       <c r="G25" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="G25" ca="1">INDEX(Titles,E25,0)</f>
-        <v>Introduction to the Theory of Computation</v>
-      </c>
-      <c r="J25" s="45">
+        <v>Songs of Innocence and of Experience</v>
+      </c>
+      <c r="J25" s="34">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K25" s="46">
+        <v>19</v>
+      </c>
+      <c r="K25" s="35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="L25" s="51">
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="L25" s="40">
         <f t="shared" si="1"/>
         <v>0.22767024869695299</v>
       </c>
-      <c r="M25" s="52">
+      <c r="M25" s="41">
         <f ca="1">SUMPRODUCT($D$6:D25,$L$6:L25)</f>
-        <v>5.0312890688932086</v>
-      </c>
-      <c r="N25" s="57">
+        <v>6.3909721058461209</v>
+      </c>
+      <c r="N25" s="46">
         <f>SUMPRODUCT($D$30:D49,$L$6:L25)</f>
         <v>11.630277390906008</v>
       </c>
-      <c r="O25" s="58">
+      <c r="O25" s="47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43260267143991715</v>
+        <v>0.54951158008005685</v>
       </c>
     </row>
     <row r="28" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7527,7 +10716,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="94" t="s">
         <v>158</v>
       </c>
       <c r="C30" s="3">
@@ -7538,7 +10727,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="3">
-        <f>C30</f>
+        <f t="shared" ref="E30:E44" si="4">C30</f>
         <v>1</v>
       </c>
       <c r="F30" s="3" t="str" cm="1">
@@ -7551,7 +10740,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="21"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="3">
         <v>2</v>
       </c>
@@ -7560,7 +10749,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="3">
-        <f>C31</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F31" s="3" t="str" cm="1">
@@ -7573,7 +10762,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="3">
         <v>3</v>
       </c>
@@ -7582,7 +10771,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <f>C32</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="F32" s="3" t="str" cm="1">
@@ -7595,7 +10784,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="3">
         <v>4</v>
       </c>
@@ -7604,7 +10793,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="3">
-        <f>C33</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="F33" s="3" t="str" cm="1">
@@ -7617,7 +10806,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="21"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="3">
         <v>5</v>
       </c>
@@ -7626,7 +10815,7 @@
         <v>2</v>
       </c>
       <c r="E34" s="3">
-        <f>C34</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="F34" s="3" t="str" cm="1">
@@ -7639,7 +10828,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="21"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="3">
         <v>6</v>
       </c>
@@ -7648,7 +10837,7 @@
         <v>2</v>
       </c>
       <c r="E35" s="3">
-        <f>C35</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="F35" s="3" t="str" cm="1">
@@ -7661,7 +10850,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="21"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="3">
         <v>7</v>
       </c>
@@ -7670,7 +10859,7 @@
         <v>2</v>
       </c>
       <c r="E36" s="3">
-        <f>C36</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F36" s="3" t="str" cm="1">
@@ -7683,7 +10872,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="21"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="3">
         <v>8</v>
       </c>
@@ -7692,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="3">
-        <f>C37</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F37" s="3" t="str" cm="1">
@@ -7705,7 +10894,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="21"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="3">
         <v>9</v>
       </c>
@@ -7714,7 +10903,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="3">
-        <f>C38</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="F38" s="3" t="str" cm="1">
@@ -7727,7 +10916,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="21"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="3">
         <v>10</v>
       </c>
@@ -7736,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="3">
-        <f>C39</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="F39" s="3" t="str" cm="1">
@@ -7749,7 +10938,7 @@
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="21"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="3">
         <v>11</v>
       </c>
@@ -7758,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="3">
-        <f>C40</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="F40" s="3" t="str" cm="1">
@@ -7771,7 +10960,7 @@
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="21"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="3">
         <v>12</v>
       </c>
@@ -7780,7 +10969,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="3">
-        <f>C41</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="F41" s="3" t="str" cm="1">
@@ -7793,7 +10982,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="21"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="3">
         <v>13</v>
       </c>
@@ -7802,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <f>C42</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F42" s="3" t="str" cm="1">
@@ -7815,7 +11004,7 @@
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="3">
         <v>14</v>
       </c>
@@ -7824,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="3">
-        <f>C43</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="F43" s="3" t="str" cm="1">
@@ -7837,7 +11026,7 @@
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="21"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="3">
         <v>15</v>
       </c>
@@ -7846,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="3">
-        <f>C44</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="F44" s="3" t="str" cm="1">
@@ -7859,23 +11048,23 @@
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="21"/>
+      <c r="B45" s="94"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="21"/>
+      <c r="B46" s="94"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="21"/>
+      <c r="B47" s="94"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="21"/>
+      <c r="B48" s="94"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="21"/>
+      <c r="B49" s="94"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -7912,4 +11101,1248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CD76F0-AACB-144E-B743-794335D20EE8}">
+  <dimension ref="B1:H16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="7" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:8" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="98"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+    </row>
+    <row r="6" spans="2:8" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="72"/>
+      <c r="C6" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="2:8" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="67">
+        <f>D7+E7</f>
+        <v>2030</v>
+      </c>
+      <c r="D7" s="66">
+        <v>30</v>
+      </c>
+      <c r="E7" s="66">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+    </row>
+    <row r="8" spans="2:8" ht="66.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="100"/>
+      <c r="C9" s="62">
+        <f>D9+E9</f>
+        <v>200</v>
+      </c>
+      <c r="D9" s="60">
+        <v>20</v>
+      </c>
+      <c r="E9" s="61">
+        <f>E7-E11</f>
+        <v>180</v>
+      </c>
+      <c r="F9" s="58">
+        <f>D9/C9</f>
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="59">
+        <f>E9/C9</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="82.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="100"/>
+      <c r="C10" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="101"/>
+      <c r="C11" s="62">
+        <f>D11+E11</f>
+        <v>1830</v>
+      </c>
+      <c r="D11" s="61">
+        <f>D7-D9</f>
+        <v>10</v>
+      </c>
+      <c r="E11" s="60">
+        <v>1820</v>
+      </c>
+      <c r="F11" s="59">
+        <f>D11/C11</f>
+        <v>5.4644808743169399E-3</v>
+      </c>
+      <c r="G11" s="58">
+        <f>E11/C11</f>
+        <v>0.99453551912568305</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="79" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="2:8" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="50">
+        <f>D9/D7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E13" s="48">
+        <f>E9/E7</f>
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="50">
+        <f>(E11+D9)/C7</f>
+        <v>0.90640394088669951</v>
+      </c>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="2:8" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="48">
+        <f>D11/D7</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="50">
+        <f>E11/E7</f>
+        <v>0.91</v>
+      </c>
+      <c r="F15" s="49"/>
+      <c r="G15" s="48">
+        <f>(D11+E9)/C7</f>
+        <v>9.3596059113300489E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2974916-156B-8D4B-A2FB-99E7855F63E1}">
+  <dimension ref="B1:N29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="12.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="76">
+        <f>COUNTIF($D$6:$D6,"=P")</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="76">
+        <f>COUNTIF($D$6:$D6,"=N")</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="76">
+        <f>COUNTIF($D7:$D$25,"=P")</f>
+        <v>9</v>
+      </c>
+      <c r="J6" s="76">
+        <f>COUNTIF($D7:$D$25,"=N")</f>
+        <v>10</v>
+      </c>
+      <c r="K6" s="75">
+        <f t="shared" ref="K6:K25" si="0">G6/$E$28</f>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="75">
+        <f t="shared" ref="L6:L25" si="1">H6/$E$29</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="75">
+        <f t="shared" ref="M6:M25" si="2">(G6+J6)/($E$28+$E$29)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N6" s="74">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="76">
+        <f>COUNTIF($D$6:$D7,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="H7" s="76">
+        <f>COUNTIF($D$6:$D7,"=N")</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="76">
+        <f>COUNTIF($D8:$D$25,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="76">
+        <f>COUNTIF($D8:$D$25,"=N")</f>
+        <v>10</v>
+      </c>
+      <c r="K7" s="75">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N7" s="74">
+        <f t="shared" ref="N7:N25" si="3">(K7+K6)*(L7-L6)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="77">
+        <v>0.7</v>
+      </c>
+      <c r="G8" s="76">
+        <f>COUNTIF($D$6:$D8,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="H8" s="76">
+        <f>COUNTIF($D$6:$D8,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="76">
+        <f>COUNTIF($D9:$D$25,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="J8" s="76">
+        <f>COUNTIF($D9:$D$25,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="K8" s="75">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="L8" s="75">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M8" s="75">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N8" s="74">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="76">
+        <f>COUNTIF($D$6:$D9,"=P")</f>
+        <v>3</v>
+      </c>
+      <c r="H9" s="76">
+        <f>COUNTIF($D$6:$D9,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="76">
+        <f>COUNTIF($D10:$D$25,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="J9" s="76">
+        <f>COUNTIF($D10:$D$25,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="K9" s="75">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="L9" s="75">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M9" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N9" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10" s="76">
+        <f>COUNTIF($D$6:$D10,"=P")</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="76">
+        <f>COUNTIF($D$6:$D10,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="76">
+        <f>COUNTIF($D11:$D$25,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="76">
+        <f>COUNTIF($D11:$D$25,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="K10" s="75">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="L10" s="75">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M10" s="75">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="N10" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="85">
+        <v>6</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="83">
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="82"/>
+      <c r="G11" s="81">
+        <f>COUNTIF($D$6:$D11,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="H11" s="81">
+        <f>COUNTIF($D$6:$D11,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="81">
+        <f>COUNTIF($D12:$D$25,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="J11" s="81">
+        <f>COUNTIF($D12:$D$25,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="K11" s="80">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="80">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="79">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="N11" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="77">
+        <v>0.53</v>
+      </c>
+      <c r="G12" s="76">
+        <f>COUNTIF($D$6:$D12,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="H12" s="76">
+        <f>COUNTIF($D$6:$D12,"=N")</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="76">
+        <f>COUNTIF($D13:$D$25,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="76">
+        <f>COUNTIF($D13:$D$25,"=N")</f>
+        <v>8</v>
+      </c>
+      <c r="K12" s="75">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="75">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="M12" s="75">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="N12" s="74">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" s="77">
+        <v>0.52</v>
+      </c>
+      <c r="G13" s="76">
+        <f>COUNTIF($D$6:$D13,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="H13" s="76">
+        <f>COUNTIF($D$6:$D13,"=N")</f>
+        <v>3</v>
+      </c>
+      <c r="I13" s="76">
+        <f>COUNTIF($D14:$D$25,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="J13" s="76">
+        <f>COUNTIF($D14:$D$25,"=N")</f>
+        <v>7</v>
+      </c>
+      <c r="K13" s="75">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="75">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="M13" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N13" s="74">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="4">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="78">
+        <v>0.51</v>
+      </c>
+      <c r="G14" s="76">
+        <f>COUNTIF($D$6:$D14,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="H14" s="76">
+        <f>COUNTIF($D$6:$D14,"=N")</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="76">
+        <f>COUNTIF($D15:$D$25,"=P")</f>
+        <v>4</v>
+      </c>
+      <c r="J14" s="76">
+        <f>COUNTIF($D15:$D$25,"=N")</f>
+        <v>7</v>
+      </c>
+      <c r="K14" s="75">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L14" s="75">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="75">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="N14" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="76">
+        <f>COUNTIF($D$6:$D15,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="H15" s="76">
+        <f>COUNTIF($D$6:$D15,"=N")</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="76">
+        <f>COUNTIF($D16:$D$25,"=P")</f>
+        <v>4</v>
+      </c>
+      <c r="J15" s="76">
+        <f>COUNTIF($D16:$D$25,"=N")</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="75">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="75">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="M15" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N15" s="74">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="78">
+        <v>0.4</v>
+      </c>
+      <c r="G16" s="76">
+        <f>COUNTIF($D$6:$D16,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="H16" s="76">
+        <f>COUNTIF($D$6:$D16,"=N")</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="76">
+        <f>COUNTIF($D17:$D$25,"=P")</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="76">
+        <f>COUNTIF($D17:$D$25,"=N")</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="75">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L16" s="75">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="M16" s="75">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="N16" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" s="6">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="77">
+        <v>0.39</v>
+      </c>
+      <c r="G17" s="76">
+        <f>COUNTIF($D$6:$D17,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="76">
+        <f>COUNTIF($D$6:$D17,"=N")</f>
+        <v>5</v>
+      </c>
+      <c r="I17" s="76">
+        <f>COUNTIF($D18:$D$25,"=P")</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="76">
+        <f>COUNTIF($D18:$D$25,"=N")</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="75">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L17" s="75">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="74">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999979E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" s="4">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="78">
+        <v>0.38</v>
+      </c>
+      <c r="G18" s="76">
+        <f>COUNTIF($D$6:$D18,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="76">
+        <f>COUNTIF($D$6:$D18,"=N")</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="76">
+        <f>COUNTIF($D19:$D$25,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="76">
+        <f>COUNTIF($D19:$D$25,"=N")</f>
+        <v>5</v>
+      </c>
+      <c r="K18" s="75">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="75">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="M18" s="75">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="N18" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C19" s="6">
+        <v>14</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E19" s="77">
+        <v>0.37</v>
+      </c>
+      <c r="G19" s="76">
+        <f>COUNTIF($D$6:$D19,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="H19" s="76">
+        <f>COUNTIF($D$6:$D19,"=N")</f>
+        <v>6</v>
+      </c>
+      <c r="I19" s="76">
+        <f>COUNTIF($D20:$D$25,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="76">
+        <f>COUNTIF($D20:$D$25,"=N")</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="75">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="75">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="75">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="N19" s="74">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="77">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="76">
+        <f>COUNTIF($D$6:$D20,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="H20" s="76">
+        <f>COUNTIF($D$6:$D20,"=N")</f>
+        <v>7</v>
+      </c>
+      <c r="I20" s="76">
+        <f>COUNTIF($D21:$D$25,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="76">
+        <f>COUNTIF($D21:$D$25,"=N")</f>
+        <v>3</v>
+      </c>
+      <c r="K20" s="75">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="L20" s="75">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="M20" s="75">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N20" s="74">
+        <f t="shared" si="3"/>
+        <v>7.9999999999999988E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" s="6">
+        <v>16</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="77">
+        <v>0.35</v>
+      </c>
+      <c r="G21" s="76">
+        <f>COUNTIF($D$6:$D21,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="76">
+        <f>COUNTIF($D$6:$D21,"=N")</f>
+        <v>8</v>
+      </c>
+      <c r="I21" s="76">
+        <f>COUNTIF($D22:$D$25,"=P")</f>
+        <v>2</v>
+      </c>
+      <c r="J21" s="76">
+        <f>COUNTIF($D22:$D$25,"=N")</f>
+        <v>2</v>
+      </c>
+      <c r="K21" s="75">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="L21" s="75">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="75">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N21" s="74">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C22" s="4">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="78">
+        <v>0.34</v>
+      </c>
+      <c r="G22" s="76">
+        <f>COUNTIF($D$6:$D22,"=P")</f>
+        <v>9</v>
+      </c>
+      <c r="H22" s="76">
+        <f>COUNTIF($D$6:$D22,"=N")</f>
+        <v>8</v>
+      </c>
+      <c r="I22" s="76">
+        <f>COUNTIF($D23:$D$25,"=P")</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="76">
+        <f>COUNTIF($D23:$D$25,"=N")</f>
+        <v>2</v>
+      </c>
+      <c r="K22" s="75">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="75">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="M22" s="75">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N22" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C23" s="6">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" s="77">
+        <v>0.33</v>
+      </c>
+      <c r="G23" s="76">
+        <f>COUNTIF($D$6:$D23,"=P")</f>
+        <v>9</v>
+      </c>
+      <c r="H23" s="76">
+        <f>COUNTIF($D$6:$D23,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="I23" s="76">
+        <f>COUNTIF($D24:$D$25,"=P")</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="76">
+        <f>COUNTIF($D24:$D$25,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="75">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="L23" s="75">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="M23" s="75">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N23" s="74">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999983E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C24" s="4">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="G24" s="76">
+        <f>COUNTIF($D$6:$D24,"=P")</f>
+        <v>10</v>
+      </c>
+      <c r="H24" s="76">
+        <f>COUNTIF($D$6:$D24,"=N")</f>
+        <v>9</v>
+      </c>
+      <c r="I24" s="76">
+        <f>COUNTIF($D25:$D$25,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="76">
+        <f>COUNTIF($D25:$D$25,"=N")</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="75">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="M24" s="75">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N24" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C25" s="6">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="77">
+        <v>0.1</v>
+      </c>
+      <c r="G25" s="76">
+        <f>COUNTIF($D$6:$D25,"=P")</f>
+        <v>10</v>
+      </c>
+      <c r="H25" s="76">
+        <f>COUNTIF($D$6:$D25,"=N")</f>
+        <v>10</v>
+      </c>
+      <c r="I25" s="76">
+        <v>0</v>
+      </c>
+      <c r="J25" s="76">
+        <v>0</v>
+      </c>
+      <c r="K25" s="75">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="75">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="74">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="73"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="73"/>
+    </row>
+    <row r="28" spans="3:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="C28" s="73"/>
+      <c r="D28" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="4">
+        <f>COUNTIF($D$6:$D$25,"=P")</f>
+        <v>10</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96">
+        <f>SUM(N6:N25)</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="73"/>
+    </row>
+    <row r="29" spans="3:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="C29" s="73"/>
+      <c r="D29" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="6">
+        <f>COUNTIF($D$6:$D$25,"=N")</f>
+        <v>10</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="K28:K29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>